--- a/docs/Dashai Sample - Sheet.xlsx
+++ b/docs/Dashai Sample - Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Arctiq - Dashboard" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="dashai" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Prep Sheet" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -14,28 +14,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
-    <t>Section</t>
-  </si>
-  <si>
     <t>Top 10 NHL All-Time Penalty Minutes</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Top 10 NHL Regular Season Goals</t>
   </si>
   <si>
     <t>Tiger Williams</t>
   </si>
   <si>
+    <t>Section</t>
+  </si>
+  <si>
     <t>PIMS</t>
+  </si>
+  <si>
+    <t>Metric</t>
   </si>
   <si>
     <t>Dale Hunter</t>
@@ -45,6 +36,9 @@
   </si>
   <si>
     <t>Marty McSorley</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
   <si>
     <t>Bob Probert</t>
@@ -62,13 +56,25 @@
     <t>Chris Nilan</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>*** You can see we are using the nubber cell here to feed the first sheet - that will update the dhashboard</t>
+  </si>
+  <si>
+    <t>Top 10 NHL Regular Season Goals</t>
+  </si>
+  <si>
+    <t>*** Use this sheet to prep your data layout - them move over to the first tab (this will keep the data clean since Dashai will pole for data all the time)</t>
+  </si>
+  <si>
+    <t>*** You can use different tabs to update the data in the first sheet - this will keep you date clean - only requires a field update.</t>
+  </si>
+  <si>
     <t>Wayne Gretzky</t>
   </si>
   <si>
     <t>Goals</t>
-  </si>
-  <si>
-    <t>*** You can see we are using the nubber cell here to feed the first sheet - that will update the dhashboard</t>
   </si>
   <si>
     <t>Gordie Howe</t>
@@ -78,12 +84,6 @@
   </si>
   <si>
     <t>Jaromir Jagr</t>
-  </si>
-  <si>
-    <t>*** Use this sheet to prep your data layout - them move over to the first tab (this will keep the data clean since Dashai will pole for data all the time)</t>
-  </si>
-  <si>
-    <t>*** You can use different tabs to update the data in the first sheet - this will keep you date clean - only requires a field update.</t>
   </si>
   <si>
     <t>Brett Hull</t>
@@ -190,20 +190,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -239,32 +239,20 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -272,14 +260,26 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -297,7 +297,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -342,205 +342,205 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
         <v>894.0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
         <v>801.0</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
         <v>766.0</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>741.0</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>731.0</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>717.0</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
         <v>708.0</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <v>694.0</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>692.0</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <v>690.0</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
-        <v>20</v>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
         <v>2857.0</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>20</v>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
         <v>1921.0</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -549,22 +549,22 @@
       <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="2">
         <v>1887.0</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
         <v>1850.0</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -573,10 +573,10 @@
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <v>1798.0</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -585,10 +585,10 @@
       <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="2">
         <v>1771.0</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -597,10 +597,10 @@
       <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2">
         <v>1755.0</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -609,10 +609,10 @@
       <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="2">
         <v>1723.0</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -621,10 +621,10 @@
       <c r="B22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="2">
         <v>1641.0</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -633,10 +633,10 @@
       <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="2">
         <v>1590.0</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
       <c r="B25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -665,7 +665,7 @@
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2">
         <v>13.0</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -677,7 +677,7 @@
       <c r="B27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="2">
         <v>11.0</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -689,7 +689,7 @@
       <c r="B28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="2">
         <v>6.0</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -701,7 +701,7 @@
       <c r="B29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="2">
         <v>6.0</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -713,7 +713,7 @@
       <c r="B30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="2">
         <v>5.0</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -725,7 +725,7 @@
       <c r="B31" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="2">
         <v>5.0</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -737,7 +737,7 @@
       <c r="B32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="2">
         <v>4.0</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -749,7 +749,7 @@
       <c r="B33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="2">
         <v>4.0</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -761,7 +761,7 @@
       <c r="B34" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="2">
         <v>3.0</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -773,7 +773,7 @@
       <c r="B35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="2">
         <v>2.0</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -785,7 +785,7 @@
       <c r="B36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="2">
         <v>2.0</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -797,7 +797,7 @@
       <c r="B37" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="2">
         <v>2.0</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -809,7 +809,7 @@
       <c r="B38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="2">
         <v>1.0</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -821,7 +821,7 @@
       <c r="B39" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="2">
         <v>1.0</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -833,7 +833,7 @@
       <c r="B40" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="2">
         <v>1.0</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -845,7 +845,7 @@
       <c r="B41" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="2">
         <v>1.0</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -857,7 +857,7 @@
       <c r="B42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="2">
         <v>1.0</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -866,137 +866,137 @@
     </row>
     <row r="43">
       <c r="A43" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44" s="20">
         <f>'Prep Sheet'!C2</f>
         <v>3971</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="17"/>
       <c r="B45" s="22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="20">
         <f>'Prep Sheet'!C3</f>
         <v>3565</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="17"/>
       <c r="B46" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46" s="20">
         <f>'Prep Sheet'!C4</f>
         <v>3515</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="17"/>
       <c r="B47" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="20">
         <f>'Prep Sheet'!C5</f>
         <v>3381</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="17"/>
       <c r="B48" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" s="20">
         <f>'Prep Sheet'!C6</f>
         <v>3300</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="17"/>
       <c r="B49" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C49" s="20">
         <f>'Prep Sheet'!C7</f>
         <v>3207</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="17"/>
       <c r="B50" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" s="20">
         <f>'Prep Sheet'!C8</f>
         <v>3149</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="17"/>
       <c r="B51" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" s="20">
         <f>'Prep Sheet'!C9</f>
         <v>3146</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="17"/>
       <c r="B52" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" s="20">
         <f>'Prep Sheet'!C10</f>
         <v>3043</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="17"/>
       <c r="B53" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" s="20">
         <f>'Prep Sheet'!C11</f>
         <v>2970</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -6091,131 +6091,131 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="2">
+        <v>3971.0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3565.0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
-        <v>3971.0</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="2">
+        <v>3515.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3565.0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="2">
+        <v>3381.0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7">
-        <v>3515.0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10" t="s">
+      <c r="C6" s="2">
+        <v>3300.0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
-        <v>3381.0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="10" t="s">
+      <c r="C7" s="2">
+        <v>3207.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
-        <v>3300.0</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="10" t="s">
+      <c r="C8" s="2">
+        <v>3149.0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
-        <v>3207.0</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="10" t="s">
+      <c r="C9" s="2">
+        <v>3146.0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
-        <v>3149.0</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3146.0</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="2">
+        <v>3043.0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2970.0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
-        <v>3043.0</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2970.0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
